--- a/downloads/guru_top_holdings_cleaned.xlsx
+++ b/downloads/guru_top_holdings_cleaned.xlsx
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ERJ</t>
+          <t>CAE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -4711,37 +4711,37 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>HKSE:02318</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>HKSE:09618</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>PDD</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>HKSE:02318</t>
-        </is>
-      </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>HKSE:03690</t>
+          <t>DIDIY</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>HKSE:01336</t>
+          <t>SZSE:300750</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>DIDIY</t>
+          <t>HKSE:06099</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>HKSE:02628</t>
+          <t>HKSE:03908</t>
         </is>
       </c>
     </row>
@@ -4763,37 +4763,37 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>BSP:YDUQ3</t>
+          <t>BOM:543333</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
+          <t>TPE:2383</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>TPE:2368</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>XKRX:084370</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>XAMS:INPST</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>BOM:532497</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
           <t>JSE:WBC</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>BSP:SBFG3</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>BOM:543333</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>TPE:2383</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>BOM:532497</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>YMM</t>
         </is>
       </c>
     </row>
@@ -4805,47 +4805,47 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>TSE:8306</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>TSE:8035</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>TSE:8766</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>TSE:8306</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>TSE:7203</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>TSE:8002</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>TSE:8591</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>TSE:6701</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>TSE:6501</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>TSE:8035</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>TSE:6701</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>TSE:2802</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>TSE:4063</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>TSE:8801</t>
-        </is>
-      </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>TSE:8001</t>
+          <t>TSE:6503</t>
         </is>
       </c>
     </row>
@@ -4867,37 +4867,37 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>XKRX:105560</t>
+          <t>XKRX:005930</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>XKRX:005930</t>
+          <t>TPE:2308</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>HKSE:03968</t>
+          <t>BOM:543320</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
+          <t>DIDIY</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>BOM:500696</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>NSE:BHARTIARTL</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
           <t>XKRX:000660</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>NSE:BHARTIARTL</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>BOM:543320</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>SE</t>
         </is>
       </c>
     </row>
@@ -7501,42 +7501,42 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
+          <t>TSE:3923</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>TSE:6532</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>NSE:CHOLAHLDNG</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
           <t>TSE:3064</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>NSE:CHOLAHLDNG</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>XTER:G24</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>LSE:HLMA</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>TSE:6532</t>
-        </is>
-      </c>
       <c r="G140" t="inlineStr">
         <is>
+          <t>TSE:6544</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
           <t>TSE:7649</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>LSE:SCT</t>
-        </is>
-      </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>ASX:TNE</t>
+          <t>LSE:DPLM</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7563,19 +7563,19 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
+          <t>FOX</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
           <t>UHAL.B</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>FOX</t>
-        </is>
-      </c>
       <c r="G141" t="inlineStr">
         <is>
           <t>PEP</t>
@@ -7583,17 +7583,17 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
           <t>NWSA</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>RS</t>
         </is>
       </c>
     </row>
